--- a/src/test/java/com/cham/더미데이터.xlsx
+++ b/src/test/java/com/cham/더미데이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlglx\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
   <si>
     <t>사용자</t>
   </si>
@@ -70,9 +70,6 @@
     <t>대전 서구 둔산로137번길 27 둔산빌딩 1층 4호</t>
   </si>
   <si>
-    <t>민선8기 일류 경제도시 대전 건설 청사진 홍보 출입기자들과 간담회</t>
-  </si>
-  <si>
     <t>계좌</t>
   </si>
   <si>
@@ -279,6 +276,14 @@
   </si>
   <si>
     <t>시정과 지역특산품 홍보 서울주재 언론관계자 지역특산품 제공</t>
+  </si>
+  <si>
+    <t>민선8기 일류 경제도시 대전 건설 청사진 홍보 출입기자들과 간담회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>49명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -787,7 +792,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -837,8 +842,8 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f>IF(A2 = "시장","허장우",A2)</f>
-        <v>허장우</v>
+        <f>IF(A2 = "시장","이장우",A2)</f>
+        <v>이장우</v>
       </c>
       <c r="C2" s="6">
         <v>44743</v>
@@ -853,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H2" s="11">
         <v>65</v>
@@ -862,10 +867,10 @@
         <v>975000</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -873,8 +878,8 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:B29" si="0">IF(A3 = "시장","허장우",A3)</f>
-        <v>허장우</v>
+        <f t="shared" ref="B3:B29" si="0">IF(A3 = "시장","이장우",A3)</f>
+        <v>이장우</v>
       </c>
       <c r="C3" s="6">
         <v>44743</v>
@@ -883,13 +888,13 @@
         <v>0.53263888888888888</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -898,15 +903,15 @@
         <v>200000</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -919,13 +924,13 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="11">
         <v>18</v>
@@ -934,10 +939,10 @@
         <v>437000</v>
       </c>
       <c r="J4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -946,7 +951,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C5" s="13">
         <v>44746</v>
@@ -961,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="11">
         <v>9</v>
@@ -970,10 +975,10 @@
         <v>84400</v>
       </c>
       <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -982,7 +987,7 @@
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C6" s="13">
         <v>44748</v>
@@ -997,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5">
         <v>9</v>
@@ -1006,10 +1011,10 @@
         <v>87600</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1018,7 +1023,7 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C7" s="13">
         <v>44750</v>
@@ -1027,13 +1032,13 @@
         <v>0.51875000000000004</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -1042,10 +1047,10 @@
         <v>120000</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1054,7 +1059,7 @@
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C8" s="13">
         <v>44753</v>
@@ -1069,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
@@ -1078,10 +1083,10 @@
         <v>98100</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1090,7 +1095,7 @@
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C9" s="13">
         <v>44755</v>
@@ -1099,13 +1104,13 @@
         <v>0.51875000000000004</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
@@ -1114,10 +1119,10 @@
         <v>32000</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1126,7 +1131,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C10" s="13">
         <v>44755</v>
@@ -1135,30 +1140,30 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="11">
         <v>320000</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1171,13 +1176,13 @@
         <v>0.77708333333333335</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
@@ -1186,15 +1191,15 @@
         <v>24300</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1207,13 +1212,13 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="5">
         <v>18</v>
@@ -1222,10 +1227,10 @@
         <v>430000</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1234,7 +1239,7 @@
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C13" s="13">
         <v>44756</v>
@@ -1243,13 +1248,13 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="5">
         <v>8</v>
@@ -1258,10 +1263,10 @@
         <v>39000</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1270,7 +1275,7 @@
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C14" s="13">
         <v>44757</v>
@@ -1279,13 +1284,13 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="5">
         <v>30</v>
@@ -1294,10 +1299,10 @@
         <v>61500</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1306,7 +1311,7 @@
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C15" s="13">
         <v>44757</v>
@@ -1315,13 +1320,13 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="11">
         <v>2382</v>
@@ -1330,10 +1335,10 @@
         <v>3750000</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1342,7 +1347,7 @@
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C16" s="13">
         <v>44757</v>
@@ -1351,13 +1356,13 @@
         <v>0.52152777777777781</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="H16" s="5">
         <v>24</v>
@@ -1366,10 +1371,10 @@
         <v>595000</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1378,7 +1383,7 @@
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C17" s="13">
         <v>44761</v>
@@ -1387,30 +1392,30 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="11">
         <v>237700</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1423,13 +1428,13 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="5">
         <v>2</v>
@@ -1438,15 +1443,15 @@
         <v>19500</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1459,13 +1464,13 @@
         <v>0.78541666666666665</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -1474,10 +1479,10 @@
         <v>46700</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1486,7 +1491,7 @@
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C20" s="13">
         <v>44762</v>
@@ -1495,13 +1500,13 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="5">
         <v>16</v>
@@ -1510,15 +1515,15 @@
         <v>450000</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1531,13 +1536,13 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
@@ -1546,10 +1551,10 @@
         <v>38500</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1558,7 +1563,7 @@
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C22" s="13">
         <v>44763</v>
@@ -1567,13 +1572,13 @@
         <v>0.52847222222222223</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
@@ -1582,10 +1587,10 @@
         <v>60000</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1594,7 +1599,7 @@
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C23" s="13">
         <v>44763</v>
@@ -1603,25 +1608,25 @@
         <v>0.46458333333333335</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="11">
         <v>1200000</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1630,7 +1635,7 @@
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C24" s="13">
         <v>44767</v>
@@ -1645,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
@@ -1654,10 +1659,10 @@
         <v>101800</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1666,7 +1671,7 @@
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C25" s="13">
         <v>44767</v>
@@ -1675,13 +1680,13 @@
         <v>0.82430555555555551</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H25" s="5">
         <v>5</v>
@@ -1690,10 +1695,10 @@
         <v>95000</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1702,7 +1707,7 @@
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C26" s="13">
         <v>44768</v>
@@ -1711,13 +1716,13 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="H26" s="5">
         <v>70</v>
@@ -1726,15 +1731,15 @@
         <v>1330000</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1747,13 +1752,13 @@
         <v>0.51249999999999996</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
@@ -1762,10 +1767,10 @@
         <v>24100</v>
       </c>
       <c r="J27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1774,7 +1779,7 @@
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>허장우</v>
+        <v>이장우</v>
       </c>
       <c r="C28" s="13">
         <v>44768</v>
@@ -1783,13 +1788,13 @@
         <v>0.58263888888888893</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="H28" s="5">
         <v>55</v>
@@ -1798,15 +1803,15 @@
         <v>1140000</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1819,25 +1824,25 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="5">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="I29" s="11">
         <v>460000</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/cham/더미데이터.xlsx
+++ b/src/test/java/com/cham/더미데이터.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$29</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>사용자</t>
   </si>
@@ -67,21 +70,12 @@
     <t>본도시락</t>
   </si>
   <si>
-    <t>대전 서구 둔산로137번길 27 둔산빌딩 1층 4호</t>
-  </si>
-  <si>
     <t>계좌</t>
   </si>
   <si>
     <t>시책추진</t>
   </si>
   <si>
-    <t>송프라워</t>
-  </si>
-  <si>
-    <t>대전광역시 서구 둔산중로 19 샤크존 1층</t>
-  </si>
-  <si>
     <t>세종특별자치시 출범 10주년 축하 화환</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>신하숯불갈비</t>
   </si>
   <si>
-    <t>대전 서구 용소로50번길 40 우현빌 1층</t>
-  </si>
-  <si>
     <t>시장 취임식 행사 직원 격려 오찬 제공</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>오천항</t>
   </si>
   <si>
-    <t>대전 서구 계룡로509번길 41</t>
-  </si>
-  <si>
     <t>민선8기 시정운영 방향 등 홍보위해 언론인과 간담회</t>
   </si>
   <si>
@@ -124,18 +112,12 @@
     <t>논산회관</t>
   </si>
   <si>
-    <t>대전광역시 서구 도솔로499번길 5</t>
-  </si>
-  <si>
     <t>민선8기 시정철학과 시정방향 설명위해 언론인과 간담회</t>
   </si>
   <si>
     <t>두리유통</t>
   </si>
   <si>
-    <t>대전광역시 대덕구 한밭대로989번길 20</t>
-  </si>
-  <si>
     <t>공식적으로 우리시 방문 내방객 접대위해 다과재료 구입</t>
   </si>
   <si>
@@ -148,34 +130,22 @@
     <t>서브웨이</t>
   </si>
   <si>
-    <t>대전 서구 둔산로123번길 21</t>
-  </si>
-  <si>
     <t>시정 현장수행을 격려하기 위해 만찬 제공</t>
   </si>
   <si>
     <t>마당칼국수</t>
   </si>
   <si>
-    <t>대전광역시 중구 중앙로79번길 27 1층 마당칼국수</t>
-  </si>
-  <si>
     <t>민선8기 인수위원회 업무지원 직원 격려 오찬</t>
   </si>
   <si>
     <t>카페1424</t>
   </si>
   <si>
-    <t>대전광역시 동구 역전2길 6</t>
-  </si>
-  <si>
     <t>원도심 경로당,쪽방촌 폭염대책 점검 현장시장실 운영직원 격려 티 타임</t>
   </si>
   <si>
     <t>노은농수산물도매시장</t>
-  </si>
-  <si>
-    <t>대전 유성구 노은동로 33</t>
   </si>
   <si>
     <t>과학부시장 취임관련 간부직원들과 티타임 간담회</t>
@@ -188,9 +158,6 @@
     <t>통소매</t>
   </si>
   <si>
-    <t>대전 중구 대흥로24번길 23</t>
-  </si>
-  <si>
     <t>민선8기 시구 협력체계 구축위해 자치단체장과 간담회</t>
   </si>
   <si>
@@ -198,9 +165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>대전광역시 서구 도산로314번길 13 1층 케이투커피</t>
-  </si>
-  <si>
     <t>공식적인 업무로 우리시 방문 내방객 접대 다과재료</t>
   </si>
   <si>
@@ -211,9 +175,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>대전 서구 둔산중로 50</t>
-  </si>
-  <si>
     <t>현장 시장실 , 지역언론사 간담회 수행원 식사</t>
   </si>
   <si>
@@ -227,9 +188,6 @@
   </si>
   <si>
     <t>소셜스토리미디어</t>
-  </si>
-  <si>
-    <t>대전 서구 도안북로 88</t>
   </si>
   <si>
     <t>시방문객, 외부기관 방문시 특산품 홍보, 의례적인 기념품 구입</t>
@@ -242,18 +200,12 @@
     <t>종가집</t>
   </si>
   <si>
-    <t>대전 서구 계룡로264번길 101</t>
-  </si>
-  <si>
     <t>민선8기 시정홍보 위해 지역 언론인과 간담회</t>
   </si>
   <si>
     <t>성심당</t>
   </si>
   <si>
-    <t>대종로480번길 15</t>
-  </si>
-  <si>
     <t>민선8기 주요사업 협의위해 국회방문 지역특산품(제빵) 지급</t>
   </si>
   <si>
@@ -264,9 +216,6 @@
   </si>
   <si>
     <t>엑스포복아구</t>
-  </si>
-  <si>
-    <t>대전 서구 대덕대로234번길 29 둔산 컴포텔</t>
   </si>
   <si>
     <t>국방혁신도시 추진위원들과 방위사업청 이전방안 논의 오찬간담회</t>
@@ -283,6 +232,73 @@
   </si>
   <si>
     <t>49명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시 중구 은행동 145-1</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산동 1471</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 탄방동 590 샤크존</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 도안동 2016</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 탄방동 619</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 용문동 227-13</t>
+  </si>
+  <si>
+    <t>대전광역시 대덕구 오정동 674-29</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산동 1407</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 선화동 374-3</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 정동 14-24</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 노은동 566 농수산물도매시장</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 대사동 248-246</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 가장동 54-43 두은빌</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산동 1413 파이낸스빌딩</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 도안동 800 목원대학교</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 월평동 46</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산동 1323 둔산컴포텔</t>
+  </si>
+  <si>
+    <t>운영지원과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +310,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,21 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555558"/>
+      <color rgb="FF111111"/>
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
@@ -464,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,22 +494,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,20 +798,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,11 +844,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -854,26 +868,29 @@
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="10">
+        <v>65</v>
+      </c>
+      <c r="I2" s="10">
+        <v>975000</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="11">
-        <v>65</v>
-      </c>
-      <c r="I2" s="11">
-        <v>975000</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -888,30 +905,33 @@
         <v>0.53263888888888888</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="L3" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>200000</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -924,36 +944,38 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="11">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10">
         <v>18</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>437000</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>이장우</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="11">
         <v>44746</v>
       </c>
       <c r="D5" s="7">
@@ -962,26 +984,29 @@
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="F5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10">
         <v>9</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>84400</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1014,7 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>44748</v>
       </c>
       <c r="D6" s="7">
@@ -998,26 +1023,29 @@
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>26</v>
+      <c r="F6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="5">
         <v>9</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>87600</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1025,35 +1053,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>44750</v>
       </c>
       <c r="D7" s="7">
         <v>0.51875000000000004</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>120000</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1092,7 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>44753</v>
       </c>
       <c r="D8" s="7">
@@ -1070,26 +1101,29 @@
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>30</v>
+      <c r="F8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>98100</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1097,35 +1131,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>44755</v>
       </c>
       <c r="D9" s="7">
         <v>0.51875000000000004</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>32000</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1133,107 +1170,116 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>44755</v>
       </c>
       <c r="D10" s="7">
         <v>0.59583333333333333</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>36</v>
+        <v>73</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="11">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10">
         <v>320000</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>수행원</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>44755</v>
       </c>
       <c r="D11" s="7">
         <v>0.77708333333333335</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>24300</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>운영지원과장</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>44756</v>
       </c>
       <c r="D12" s="7">
         <v>0.52777777777777779</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>44</v>
+        <v>75</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H12" s="5">
         <v>18</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>430000</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1241,35 +1287,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>44756</v>
       </c>
       <c r="D13" s="7">
         <v>0.73750000000000004</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H13" s="5">
         <v>8</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>39000</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1277,35 +1326,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>44757</v>
       </c>
       <c r="D14" s="7">
         <v>0.38194444444444442</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="5">
         <v>30</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>61500</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1313,35 +1365,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>44757</v>
       </c>
       <c r="D15" s="7">
         <v>0.40902777777777777</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="11">
+        <v>38</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="10">
         <v>2382</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>3750000</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,35 +1404,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>44757</v>
       </c>
       <c r="D16" s="7">
         <v>0.52152777777777781</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="H16" s="5">
         <v>24</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>595000</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1385,107 +1443,116 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>44761</v>
       </c>
       <c r="D17" s="7">
         <v>0.59513888888888888</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="11">
+        <v>30</v>
+      </c>
+      <c r="I17" s="10">
         <v>237700</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>수행원</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>44761</v>
       </c>
       <c r="D18" s="7">
         <v>0.79513888888888884</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>19500</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>수행원</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>44762</v>
       </c>
       <c r="D19" s="7">
         <v>0.78541666666666665</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>46700</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1493,71 +1560,77 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>44762</v>
       </c>
       <c r="D20" s="7">
         <v>0.87152777777777779</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="H20" s="5">
         <v>16</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>450000</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>수행원</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>44763</v>
       </c>
       <c r="D21" s="7">
         <v>0.50416666666666665</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>38500</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1565,35 +1638,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>44763</v>
       </c>
       <c r="D22" s="7">
         <v>0.52847222222222223</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>60000</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -1601,35 +1677,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>44763</v>
       </c>
       <c r="D23" s="7">
         <v>0.46458333333333335</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="11">
+        <v>30</v>
+      </c>
+      <c r="I23" s="10">
         <v>1200000</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1716,7 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>44767</v>
       </c>
       <c r="D24" s="7">
@@ -1646,26 +1725,29 @@
       <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="12" t="s">
         <v>68</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>101800</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -1673,35 +1755,38 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>44767</v>
       </c>
       <c r="D25" s="7">
         <v>0.82430555555555551</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="H25" s="5">
         <v>5</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>95000</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -1709,71 +1794,77 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>44768</v>
       </c>
       <c r="D26" s="7">
         <v>0.4201388888888889</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H26" s="5">
         <v>70</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>1330000</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>수행원</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>44768</v>
       </c>
       <c r="D27" s="7">
         <v>0.51249999999999996</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>24100</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -1781,68 +1872,74 @@
         <f t="shared" si="0"/>
         <v>이장우</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>44768</v>
       </c>
       <c r="D28" s="7">
         <v>0.58263888888888893</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="H28" s="5">
         <v>55</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>1140000</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>대외협력본부장</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>44769</v>
       </c>
       <c r="D29" s="7">
         <v>0.44791666666666669</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="11">
+        <v>65</v>
+      </c>
+      <c r="I29" s="10">
         <v>460000</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>15</v>
+      <c r="J29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
